--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_13-15.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_13-15.xlsx
@@ -517,7 +517,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9098753100</t>
+          <t>9098752699</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-10T10:10:00+00:00</t>
+          <t>2025-03-10T11:50:00+00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1903</v>
+        <v>1435</v>
       </c>
       <c r="I2">
         <f>IF(E2=E1,H2+I1,H2)</f>
@@ -559,17 +559,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9098754922</t>
+          <t>9098758430</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8999999999999999</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>3510</v>
+        <v>16092</v>
       </c>
       <c r="I3">
         <f>IF(E3=E2,H3+I2,H3)</f>
@@ -623,17 +623,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9098754061</t>
+          <t>9098761282</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-10T13:12:00+00:00</t>
+          <t>2025-03-10T13:47:00+00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-10T13:22:00+00:00</t>
+          <t>2025-03-10T14:17:00+00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>2325</v>
+        <v>17478</v>
       </c>
       <c r="I4">
         <f>IF(E4=E3,H4+I3,H4)</f>
@@ -687,7 +687,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9098755293</t>
+          <t>9098766635</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-10T13:23:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-10T13:33:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>1146</v>
+        <v>5311</v>
       </c>
       <c r="I5">
         <f>IF(E5=E4,H5+I4,H5)</f>
@@ -751,29 +751,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9098771428</t>
+          <t>9098753741</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -783,27 +783,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-10T13:36:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-10T14:06:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3718</v>
+        <v>1170</v>
       </c>
       <c r="I6">
         <f>IF(E6=E5,H6+I5,H6)</f>
@@ -820,24 +820,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9098761282</t>
+          <t>9098750566</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -847,27 +847,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-10T14:06:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-10T14:36:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="I7">
         <f>IF(E7=E6,H7+I6,H7)</f>
@@ -884,24 +884,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9098758430</t>
+          <t>9098754831</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,27 +911,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-10T14:53:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-10T15:23:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>17478</v>
+        <v>640</v>
       </c>
       <c r="I8">
         <f>IF(E8=E7,H8+I7,H8)</f>
@@ -948,12 +948,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9098766635</t>
+          <t>9098759869</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -975,27 +975,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-10T15:35:00+00:00</t>
+          <t>2025-03-10T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-10T16:05:00+00:00</t>
+          <t>2025-03-10T14:01:00+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="G9" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>12368</v>
+        <v>1648</v>
       </c>
       <c r="I9">
         <f>IF(E9=E8,H9+I8,H9)</f>
@@ -1012,24 +1012,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9098760680</t>
+          <t>9098770206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-10T17:10:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2205</v>
+        <v>1837</v>
       </c>
       <c r="I10">
         <f>IF(E10=E9,H10+I9,H10)</f>
@@ -1071,17 +1071,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1093,7 +1093,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9098749940</t>
+          <t>9098770209</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T17:37:00+00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-10T10:25:00+00:00</t>
+          <t>2025-03-10T18:07:00+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>10830</v>
+        <v>7430</v>
       </c>
       <c r="I11">
         <f>IF(E11=E10,H11+I10,H11)</f>
@@ -1140,24 +1140,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9098749476</t>
+          <t>9098748007</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1167,27 +1167,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-10T10:31:00+00:00</t>
+          <t>2025-03-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6194</v>
+        <v>11757</v>
       </c>
       <c r="I12">
         <f>IF(E12=E11,H12+I11,H12)</f>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9098753741</t>
+          <t>9098754836</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1231,27 +1231,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-10T11:06:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-10T11:36:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>5478</v>
+        <v>8281</v>
       </c>
       <c r="I13">
         <f>IF(E13=E12,H13+I12,H13)</f>
@@ -1263,29 +1263,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9098753532</t>
+          <t>9098752563</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1295,27 +1295,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-10T11:38:00+00:00</t>
+          <t>2025-03-10T13:33:00+00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-10T12:08:00+00:00</t>
+          <t>2025-03-10T13:43:00+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.899999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>2199</v>
+        <v>3579</v>
       </c>
       <c r="I14">
         <f>IF(E14=E13,H14+I13,H14)</f>
@@ -1327,29 +1327,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9098754831</t>
+          <t>9098758935</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1359,27 +1359,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T13:45:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T14:15:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.899999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>732</v>
+        <v>2511</v>
       </c>
       <c r="I15">
         <f>IF(E15=E14,H15+I14,H15)</f>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9098763301</t>
+          <t>9098750204</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,27 +1423,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T14:16:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T14:26:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.499999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>3624</v>
+        <v>1758</v>
       </c>
       <c r="I16">
         <f>IF(E16=E15,H16+I15,H16)</f>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1470,14 +1470,14 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9098764942</t>
+          <t>9098764134</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,27 +1487,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-10T15:33:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-10T16:03:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.099999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>3260</v>
+        <v>3078</v>
       </c>
       <c r="I17">
         <f>IF(E17=E16,H17+I16,H17)</f>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1541,7 +1541,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098770206</t>
+          <t>9098764682</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,27 +1551,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:37:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T15:47:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.399999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" t="n">
-        <v>3008</v>
+        <v>7217</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1583,29 +1583,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9098770203</t>
+          <t>9098767747</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1615,27 +1615,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-10T17:32:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-10T18:02:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.699999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>2237</v>
+        <v>1403</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1669,7 +1669,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9098748007</t>
+          <t>9098753801</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1679,27 +1679,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-10T08:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-10T08:10:00+00:00</t>
+          <t>2025-03-10T14:50:00+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>11757</v>
+        <v>2083</v>
       </c>
       <c r="I20">
         <f>IF(E20=E19,H20+I19,H20)</f>
@@ -1711,29 +1711,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>10.03.2025 08:00:00-10:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098758935</t>
+          <t>9098771428</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1743,27 +1743,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T14:53:00+00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T15:23:00+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>9308</v>
+        <v>3475</v>
       </c>
       <c r="I21">
         <f>IF(E21=E20,H21+I20,H21)</f>
@@ -1775,17 +1775,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9098754836</t>
+          <t>9098766942</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1807,27 +1807,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-10T13:31:00+00:00</t>
+          <t>2025-03-10T15:36:00+00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-10T14:01:00+00:00</t>
+          <t>2025-03-10T16:06:00+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H22" t="n">
-        <v>1172</v>
+        <v>13006</v>
       </c>
       <c r="I22">
         <f>IF(E22=E21,H22+I21,H22)</f>
@@ -1839,29 +1839,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9098750078</t>
+          <t>9098753532</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1871,27 +1871,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-10T14:03:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-10T14:13:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2885</v>
+        <v>2067</v>
       </c>
       <c r="I23">
         <f>IF(E23=E22,H23+I22,H23)</f>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1918,14 +1918,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098750204</t>
+          <t>9098764979</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,27 +1935,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-10T14:13:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-10T14:23:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.9</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4335</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098752563</t>
+          <t>9098765148</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,27 +1999,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-10T14:23:00+00:00</t>
+          <t>2025-03-10T15:38:00+00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-10T14:33:00+00:00</t>
+          <t>2025-03-10T16:08:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
         <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>817</v>
+        <v>8621</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2031,29 +2031,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9098754566</t>
+          <t>9098764950</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2063,27 +2063,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-10T14:35:00+00:00</t>
+          <t>2025-03-10T16:17:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-10T14:45:00+00:00</t>
+          <t>2025-03-10T16:47:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>2016</v>
+        <v>9687</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2095,29 +2095,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9098755505</t>
+          <t>9098761951</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2127,27 +2127,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-10T14:47:00+00:00</t>
+          <t>2025-03-10T16:47:00+00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-10T14:57:00+00:00</t>
+          <t>2025-03-10T17:12:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H27" t="n">
-        <v>2628</v>
+        <v>801</v>
       </c>
       <c r="I27">
         <f>IF(E27=E26,H27+I26,H27)</f>
@@ -2159,29 +2159,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9098764682</t>
+          <t>9098769185</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2191,27 +2191,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-10T15:08:00+00:00</t>
+          <t>2025-03-10T17:20:00+00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-03-10T15:18:00+00:00</t>
+          <t>2025-03-10T17:50:00+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6.6</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" t="n">
-        <v>11636</v>
+        <v>8335</v>
       </c>
       <c r="I28">
         <f>IF(E28=E27,H28+I27,H28)</f>
@@ -2223,29 +2223,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098764134</t>
+          <t>9098770208</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,27 +2255,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-10T15:25:00+00:00</t>
+          <t>2025-03-10T17:50:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-10T15:55:00+00:00</t>
+          <t>2025-03-10T18:20:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7.8</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n">
-        <v>7217</v>
+        <v>338</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2287,29 +2287,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098765649</t>
+          <t>9098770144</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,27 +2319,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T18:27:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-10T17:10:00+00:00</t>
+          <t>2025-03-10T18:57:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H30" t="n">
-        <v>7998</v>
+        <v>7702</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2351,17 +2351,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9098753801</t>
+          <t>9098770203</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2383,27 +2383,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T18:58:00+00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-10T14:50:00+00:00</t>
+          <t>2025-03-10T19:28:00+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.3</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H31" t="n">
-        <v>2083</v>
+        <v>1560</v>
       </c>
       <c r="I31">
         <f>IF(E31=E30,H31+I30,H31)</f>
@@ -2415,29 +2415,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9098762003</t>
+          <t>9098748567</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2447,27 +2447,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3527</v>
+        <v>1659</v>
       </c>
       <c r="I32">
         <f>IF(E32=E31,H32+I31,H32)</f>
@@ -2484,24 +2484,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098766942</t>
+          <t>9098766103</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,27 +2511,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-10T15:37:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-10T16:07:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H33" t="n">
-        <v>7405</v>
+        <v>36560</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2543,29 +2543,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098750566</t>
+          <t>9098754922</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,27 +2575,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T14:06:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T14:16:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H34" t="n">
-        <v>1436</v>
+        <v>36011</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2622,14 +2622,14 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098752402</t>
+          <t>9098754061</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T14:18:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-10T11:00:00+00:00</t>
+          <t>2025-03-10T14:28:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H35" t="n">
-        <v>124</v>
+        <v>2325</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2671,29 +2671,29 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098753765</t>
+          <t>9098763156</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H36" t="n">
-        <v>241</v>
+        <v>1509</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098764979</t>
+          <t>9098764291</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,27 +2767,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T15:32:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T16:02:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.6</v>
+        <v>14.1</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="H37" t="n">
-        <v>4574</v>
+        <v>2781</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2799,12 +2799,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098765148</t>
+          <t>9098752402</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,27 +2831,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-10T15:38:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-10T16:08:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8621</v>
+        <v>1349</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2868,24 +2868,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098765683</t>
+          <t>9098749940</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,27 +2895,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-10T16:16:00+00:00</t>
+          <t>2025-03-10T10:40:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-10T16:46:00+00:00</t>
+          <t>2025-03-10T11:05:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>8263</v>
+        <v>10133</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2932,24 +2932,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098769185</t>
+          <t>9098760528</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2959,27 +2959,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="G40" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H40" t="n">
-        <v>5433</v>
+        <v>8496</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3006,14 +3006,14 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9098770596</t>
+          <t>9098758322</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3023,27 +3023,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-10T17:34:00+00:00</t>
+          <t>2025-03-10T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-10T18:04:00+00:00</t>
+          <t>2025-03-10T14:02:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="G41" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H41" t="n">
-        <v>4765</v>
+        <v>2663</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3070,14 +3070,14 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9098770144</t>
+          <t>9098759965</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3087,27 +3087,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-10T18:06:00+00:00</t>
+          <t>2025-03-10T14:04:00+00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-03-10T18:36:00+00:00</t>
+          <t>2025-03-10T14:34:00+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.399999999999999</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H42" t="n">
-        <v>2958</v>
+        <v>2044</v>
       </c>
       <c r="I42">
         <f>IF(E42=E41,H42+I41,H42)</f>
@@ -3134,14 +3134,14 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9098753218</t>
+          <t>9098823101</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3151,27 +3151,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T14:35:00+00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T15:05:00+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.6</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H43" t="n">
-        <v>4282</v>
+        <v>1308</v>
       </c>
       <c r="I43">
         <f>IF(E43=E42,H43+I42,H43)</f>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3198,14 +3198,14 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9098748567</t>
+          <t>9098766986</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3215,27 +3215,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-10T10:33:00+00:00</t>
+          <t>2025-03-10T15:11:00+00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-10T11:03:00+00:00</t>
+          <t>2025-03-10T15:41:00+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.2</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H44" t="n">
-        <v>3712</v>
+        <v>6314</v>
       </c>
       <c r="I44">
         <f>IF(E44=E43,H44+I43,H44)</f>
@@ -3247,29 +3247,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9098766103</t>
+          <t>9098764942</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3279,27 +3279,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T15:43:00+00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T16:13:00+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7.8</v>
+        <v>5.099999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H45" t="n">
-        <v>36560</v>
+        <v>2042</v>
       </c>
       <c r="I45">
         <f>IF(E45=E44,H45+I44,H45)</f>
@@ -3311,29 +3311,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9098755411</t>
+          <t>9098770246</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3343,27 +3343,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-10T14:06:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-10T14:16:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>14.4</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H46" t="n">
-        <v>36910</v>
+        <v>11782</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3375,29 +3375,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9098763156</t>
+          <t>9098753918</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3407,27 +3407,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1890</v>
+        <v>401</v>
       </c>
       <c r="I47">
         <f>IF(E47=E46,H47+I46,H47)</f>
@@ -3439,29 +3439,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Keşif</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9098767903</t>
+          <t>9098758595</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3471,27 +3471,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T13:12:00+00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T15:02:00+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>15.9</v>
+        <v>0.3</v>
       </c>
       <c r="G48" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>6483</v>
+        <v>2139</v>
       </c>
       <c r="I48">
         <f>IF(E48=E47,H48+I47,H48)</f>
@@ -3508,24 +3508,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9098761268</t>
+          <t>9098750500</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3535,27 +3535,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>4515</v>
+        <v>1293</v>
       </c>
       <c r="I49">
         <f>IF(E49=E48,H49+I48,H49)</f>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3582,14 +3582,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9098823101</t>
+          <t>9098748608</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3599,27 +3599,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-10T13:33:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-10T14:03:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>3627</v>
+        <v>1707</v>
       </c>
       <c r="I50">
         <f>IF(E50=E49,H50+I49,H50)</f>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3646,14 +3646,14 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9098760528</t>
+          <t>9098752073</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3663,27 +3663,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-10T14:04:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-03-10T14:34:00+00:00</t>
+          <t>2025-03-10T11:31:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1877</v>
+        <v>800</v>
       </c>
       <c r="I51">
         <f>IF(E51=E50,H51+I50,H51)</f>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9098761951</t>
+          <t>9098758570</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3727,27 +3727,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-10T15:25:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H52" t="n">
-        <v>1479</v>
+        <v>12233</v>
       </c>
       <c r="I52">
         <f>IF(E52=E51,H52+I51,H52)</f>
@@ -3759,29 +3759,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9098766615</t>
+          <t>9098754566</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3791,27 +3791,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-10T15:26:00+00:00</t>
+          <t>2025-03-10T13:39:00+00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-03-10T15:56:00+00:00</t>
+          <t>2025-03-10T13:49:00+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.5</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H53" t="n">
-        <v>1463</v>
+        <v>9676</v>
       </c>
       <c r="I53">
         <f>IF(E53=E52,H53+I52,H53)</f>
@@ -3823,29 +3823,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098764950</t>
+          <t>9098765649</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,27 +3855,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-10T15:58:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-10T16:28:00+00:00</t>
+          <t>2025-03-10T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
-        <v>2258</v>
+        <v>9999</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3887,29 +3887,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9098766986</t>
+          <t>9098748816</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3919,27 +3919,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-10T16:31:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-03-10T17:01:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3101</v>
+        <v>2266</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3966,14 +3966,14 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9098770209</t>
+          <t>9098750695</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3983,27 +3983,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-10T17:05:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-10T17:35:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="G56" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>4022</v>
+        <v>991</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4015,12 +4015,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4030,14 +4030,14 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098770246</t>
+          <t>9098762001</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,27 +4047,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-10T17:42:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-10T18:12:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>7859</v>
+        <v>2814</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098770208</t>
+          <t>9098750078</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,27 +4111,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-10T18:19:00+00:00</t>
+          <t>2025-03-10T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-10T18:49:00+00:00</t>
+          <t>2025-03-10T13:42:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.100000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>7801</v>
+        <v>2814</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4143,12 +4143,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4158,14 +4158,14 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098752699</t>
+          <t>9098754915</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,27 +4175,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-10T11:50:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>1435</v>
+        <v>4943</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4207,29 +4207,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9098753918</t>
+          <t>9098758736</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4239,27 +4239,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H60" t="n">
-        <v>1053</v>
+        <v>5857</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4271,29 +4271,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Keşif</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9098758595</t>
+          <t>9098749898</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4303,27 +4303,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-10T13:12:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-10T15:02:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2139</v>
+        <v>819</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4335,29 +4335,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098748608</t>
+          <t>9098751684</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:32:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:02:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>1174</v>
+        <v>2348</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4421,7 +4421,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098752073</t>
+          <t>9098749476</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,27 +4431,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:04:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-10T11:00:00+00:00</t>
+          <t>2025-03-10T11:34:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>800</v>
+        <v>2481</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4485,7 +4485,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9098750695</t>
+          <t>9098759250</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4495,27 +4495,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-10T11:31:00+00:00</t>
+          <t>2025-03-10T13:25:00+00:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4527,29 +4527,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098753128</t>
+          <t>9098761268</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4559,27 +4559,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-10T11:34:00+00:00</t>
+          <t>2025-03-10T13:26:00+00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-10T12:04:00+00:00</t>
+          <t>2025-03-10T13:56:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F65" t="n">
         <v>0.6</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>3426</v>
+        <v>1389</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4606,14 +4606,14 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9098758736</t>
+          <t>9098753765</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4623,27 +4623,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T13:59:00+00:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T14:29:00+00:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n">
-        <v>7190</v>
+        <v>3627</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4655,12 +4655,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4670,14 +4670,14 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9098748816</t>
+          <t>9098765683</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4687,27 +4687,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H67" t="n">
-        <v>2266</v>
+        <v>5813</v>
       </c>
       <c r="I67">
         <f>IF(E67=E66,H67+I66,H67)</f>
@@ -4719,29 +4719,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9098750500</t>
+          <t>9098763301</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4751,27 +4751,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T15:32:00+00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-10T11:00:00+00:00</t>
+          <t>2025-03-10T16:02:00+00:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.3</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H68" t="n">
-        <v>991</v>
+        <v>2682</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4798,14 +4798,14 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9098758570</t>
+          <t>9098766615</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4815,27 +4815,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T16:04:00+00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T16:34:00+00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.1</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>10736</v>
+        <v>2369</v>
       </c>
       <c r="I69">
         <f>IF(E69=E68,H69+I68,H69)</f>
@@ -4847,29 +4847,29 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9098762001</t>
+          <t>9098770570</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4879,27 +4879,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-10T13:37:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-10T14:07:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.3</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H70" t="n">
-        <v>7932</v>
+        <v>14864</v>
       </c>
       <c r="I70">
         <f>IF(E70=E69,H70+I69,H70)</f>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4926,14 +4926,14 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9098754915</t>
+          <t>9098770596</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4943,27 +4943,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T17:40:00+00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T18:10:00+00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.6</v>
+        <v>7.199999999999998</v>
       </c>
       <c r="G71" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H71" t="n">
-        <v>2305</v>
+        <v>10094</v>
       </c>
       <c r="I71">
         <f>IF(E71=E70,H71+I70,H71)</f>
@@ -4975,12 +4975,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -4990,14 +4990,14 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9098749898</t>
+          <t>9098751581</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5017,17 +5017,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>819</v>
+        <v>1903</v>
       </c>
       <c r="I72">
         <f>IF(E72=E71,H72+I71,H72)</f>
@@ -5039,17 +5039,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5061,7 +5061,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098751684</t>
+          <t>9098753407</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-10T10:32:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-10T11:02:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F73" t="n">
         <v>0.3</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>2348</v>
+        <v>1088</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5103,17 +5103,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5125,7 +5125,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098759965</t>
+          <t>9098755293</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5140,22 +5140,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F74" t="n">
         <v>0.3</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>759</v>
+        <v>108</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5167,17 +5167,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5189,7 +5189,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098758322</t>
+          <t>9098762003</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-10T13:32:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-10T14:02:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5219,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>2044</v>
+        <v>3076</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5231,29 +5231,29 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9098759250</t>
+          <t>9098760682</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5263,27 +5263,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-10T14:05:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-10T14:30:00+00:00</t>
+          <t>2025-03-10T14:50:00+00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F76" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>3025</v>
+        <v>4958</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5295,17 +5295,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5317,7 +5317,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098759869</t>
+          <t>9098766402</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5327,27 +5327,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-10T14:31:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-10T15:01:00+00:00</t>
+          <t>2025-03-10T16:50:00+00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>1057</v>
+        <v>3251</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5359,29 +5359,29 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9098770570</t>
+          <t>9098753128</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5391,27 +5391,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="G78" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>14997</v>
+        <v>4282</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5423,29 +5423,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098751581</t>
+          <t>9098749376</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,27 +5455,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:34:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:04:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>1903</v>
+        <v>4777</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5509,7 +5509,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9098753407</t>
+          <t>9098753218</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5519,27 +5519,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-10T10:31:00+00:00</t>
+          <t>2025-03-10T11:08:00+00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T11:38:00+00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H80" t="n">
-        <v>1088</v>
+        <v>4777</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5573,7 +5573,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9098767747</t>
+          <t>9098755411</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -5603,7 +5603,7 @@
         <v>10</v>
       </c>
       <c r="H81" t="n">
-        <v>9827</v>
+        <v>2819</v>
       </c>
       <c r="I81">
         <f>IF(E81=E80,H81+I80,H81)</f>
@@ -5615,29 +5615,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9098760682</t>
+          <t>9098762725</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5647,27 +5647,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-10T14:50:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.8999999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H82" t="n">
-        <v>4958</v>
+        <v>9596</v>
       </c>
       <c r="I82">
         <f>IF(E82=E81,H82+I81,H82)</f>
@@ -5684,24 +5684,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9098766402</t>
+          <t>9098767903</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5711,27 +5711,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-10T16:50:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H83" t="n">
-        <v>3251</v>
+        <v>14076</v>
       </c>
       <c r="I83">
         <f>IF(E83=E82,H83+I82,H83)</f>
@@ -5748,24 +5748,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9098749376</t>
+          <t>9098753100</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5780,22 +5780,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1484</v>
+        <v>1903</v>
       </c>
       <c r="I84">
         <f>IF(E84=E83,H84+I83,H84)</f>
@@ -5807,17 +5807,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -5829,7 +5829,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>9098762725</t>
+          <t>9098755505</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5839,27 +5839,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G85" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>11636</v>
+        <v>1541</v>
       </c>
       <c r="I85">
         <f>IF(E85=E84,H85+I84,H85)</f>
@@ -5871,29 +5871,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9098764291</t>
+          <t>9098760680</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5903,27 +5903,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-10T15:35:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-03-10T16:05:00+00:00</t>
+          <t>2025-03-10T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G86" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H86" t="n">
-        <v>5930</v>
+        <v>6531</v>
       </c>
       <c r="I86">
         <f>IF(E86=E85,H86+I85,H86)</f>
@@ -5935,22 +5935,22 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6719,13 +6719,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6744,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -6803,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6828,16 +6828,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6856,16 +6856,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6884,16 +6884,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -6940,10 +6940,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7027,13 +7027,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7080,16 +7080,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -7098,99 +7098,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9541</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Tech Id</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>08:00-10:00</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>10:00-12:00</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>13:00-15:00</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>15:00-17:00</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>17:00-19:00</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>19:00-21:00</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H23" s="1" t="inlineStr">
         <is>
           <t>21:00-23:00</t>
         </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>12787</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120</v>
-      </c>
-      <c r="E23" t="n">
-        <v>30</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D24" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" t="n">
         <v>30</v>
       </c>
-      <c r="E24" t="n">
-        <v>60</v>
-      </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -7202,23 +7202,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>60</v>
+      </c>
+      <c r="D25" t="n">
+        <v>60</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="n">
-        <v>110</v>
-      </c>
-      <c r="E25" t="n">
-        <v>40</v>
-      </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7230,23 +7230,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -7258,23 +7258,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>140</v>
+      </c>
+      <c r="E27" t="n">
         <v>30</v>
       </c>
-      <c r="E27" t="n">
-        <v>90</v>
-      </c>
       <c r="F27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -7286,23 +7286,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -7314,23 +7314,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>90</v>
-      </c>
-      <c r="E29" t="n">
-        <v>115</v>
-      </c>
-      <c r="F29" t="n">
-        <v>90</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -7342,23 +7342,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D30" t="n">
         <v>120</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -7370,23 +7370,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>120</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -7398,23 +7398,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -7426,7 +7426,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -7436,10 +7436,10 @@
         <v>60</v>
       </c>
       <c r="D33" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F33" t="n">
         <v>30</v>
@@ -7454,23 +7454,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>90</v>
+      </c>
+      <c r="D34" t="n">
+        <v>85</v>
+      </c>
+      <c r="E34" t="n">
+        <v>90</v>
+      </c>
+      <c r="F34" t="n">
         <v>60</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>30</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -7482,20 +7482,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -7510,20 +7510,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E36" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -7532,6 +7532,62 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>43480</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>90</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>30</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>9541</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7634,11 +7690,11 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -7830,11 +7886,11 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -7858,11 +7914,11 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -7886,11 +7942,11 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -7914,11 +7970,11 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8026,11 +8082,11 @@
         <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8054,11 +8110,11 @@
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -8222,11 +8278,11 @@
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8418,11 +8474,11 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8614,11 +8670,11 @@
         <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -8670,11 +8726,11 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8698,11 +8754,11 @@
         <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8838,11 +8894,11 @@
         <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -9006,11 +9062,11 @@
         <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9090,11 +9146,11 @@
         <v>4</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9202,11 +9258,11 @@
         <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9398,11 +9454,11 @@
         <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9426,11 +9482,11 @@
         <v>11</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9594,11 +9650,11 @@
         <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9678,11 +9734,11 @@
         <v>4</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9790,11 +9846,11 @@
         <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9986,11 +10042,11 @@
         <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10182,11 +10238,11 @@
         <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10210,11 +10266,11 @@
         <v>11</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10462,11 +10518,11 @@
         <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10574,11 +10630,11 @@
         <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10630,11 +10686,11 @@
         <v>4</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10770,11 +10826,11 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10826,11 +10882,11 @@
         <v>4</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10854,11 +10910,11 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10966,11 +11022,11 @@
         <v>11</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10994,11 +11050,11 @@
         <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11162,11 +11218,11 @@
         <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11358,11 +11414,11 @@
         <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11554,11 +11610,11 @@
         <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11750,11 +11806,11 @@
         <v>11</v>
       </c>
       <c r="E150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11778,11 +11834,11 @@
         <v>11</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11946,11 +12002,11 @@
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12030,11 +12086,11 @@
         <v>4</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12338,11 +12394,11 @@
         <v>4</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12534,11 +12590,11 @@
         <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12730,11 +12786,11 @@
         <v>4</v>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12786,11 +12842,11 @@
         <v>4</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12926,11 +12982,11 @@
         <v>4</v>
       </c>
       <c r="E192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13514,11 +13570,11 @@
         <v>4</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13710,11 +13766,11 @@
         <v>4</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14102,11 +14158,11 @@
         <v>4</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14186,11 +14242,11 @@
         <v>4</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14326,11 +14382,11 @@
         <v>3</v>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -14494,11 +14550,11 @@
         <v>3</v>
       </c>
       <c r="E248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -14550,11 +14606,11 @@
         <v>3</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14578,11 +14634,11 @@
         <v>3</v>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14886,11 +14942,11 @@
         <v>11</v>
       </c>
       <c r="E262" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14914,11 +14970,11 @@
         <v>11</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15278,11 +15334,11 @@
         <v>4</v>
       </c>
       <c r="E276" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15866,11 +15922,11 @@
         <v>4</v>
       </c>
       <c r="E297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16258,11 +16314,11 @@
         <v>4</v>
       </c>
       <c r="E311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16286,11 +16342,11 @@
         <v>4</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F312" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16342,11 +16398,11 @@
         <v>4</v>
       </c>
       <c r="E314" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16454,11 +16510,11 @@
         <v>3</v>
       </c>
       <c r="E318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -16482,11 +16538,11 @@
         <v>3</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F319" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -16510,11 +16566,11 @@
         <v>3</v>
       </c>
       <c r="E320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16538,11 +16594,11 @@
         <v>3</v>
       </c>
       <c r="E321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16650,11 +16706,11 @@
         <v>3</v>
       </c>
       <c r="E325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -16678,11 +16734,11 @@
         <v>3</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F326" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -16706,11 +16762,11 @@
         <v>3</v>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16734,11 +16790,11 @@
         <v>3</v>
       </c>
       <c r="E328" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16846,11 +16902,11 @@
         <v>4</v>
       </c>
       <c r="E332" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17238,11 +17294,11 @@
         <v>11</v>
       </c>
       <c r="E346" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17266,11 +17322,11 @@
         <v>11</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F347" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17434,11 +17490,11 @@
         <v>11</v>
       </c>
       <c r="E353" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17462,11 +17518,11 @@
         <v>11</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F354" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17826,11 +17882,11 @@
         <v>4</v>
       </c>
       <c r="E367" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F367" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18218,11 +18274,11 @@
         <v>4</v>
       </c>
       <c r="E381" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18414,11 +18470,11 @@
         <v>4</v>
       </c>
       <c r="E388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18610,11 +18666,11 @@
         <v>4</v>
       </c>
       <c r="E395" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F395" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18806,11 +18862,11 @@
         <v>4</v>
       </c>
       <c r="E402" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F402" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19394,11 +19450,11 @@
         <v>4</v>
       </c>
       <c r="E423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19590,11 +19646,11 @@
         <v>4</v>
       </c>
       <c r="E430" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19618,11 +19674,11 @@
         <v>4</v>
       </c>
       <c r="E431" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F431" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19786,11 +19842,11 @@
         <v>4</v>
       </c>
       <c r="E437" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19814,11 +19870,11 @@
         <v>4</v>
       </c>
       <c r="E438" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F438" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19982,11 +20038,11 @@
         <v>11</v>
       </c>
       <c r="E444" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20010,11 +20066,11 @@
         <v>11</v>
       </c>
       <c r="E445" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F445" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20374,11 +20430,11 @@
         <v>11</v>
       </c>
       <c r="E458" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20402,11 +20458,11 @@
         <v>11</v>
       </c>
       <c r="E459" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20794,11 +20850,11 @@
         <v>3</v>
       </c>
       <c r="E473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -20962,11 +21018,11 @@
         <v>11</v>
       </c>
       <c r="E479" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F479" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20990,11 +21046,11 @@
         <v>11</v>
       </c>
       <c r="E480" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21158,11 +21214,11 @@
         <v>4</v>
       </c>
       <c r="E486" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F486" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21354,11 +21410,11 @@
         <v>11</v>
       </c>
       <c r="E493" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21382,11 +21438,11 @@
         <v>11</v>
       </c>
       <c r="E494" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F494" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21578,11 +21634,11 @@
         <v>3</v>
       </c>
       <c r="E501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -21746,11 +21802,11 @@
         <v>4</v>
       </c>
       <c r="E507" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21802,11 +21858,11 @@
         <v>4</v>
       </c>
       <c r="E509" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F509" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21942,11 +21998,11 @@
         <v>11</v>
       </c>
       <c r="E514" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21970,11 +22026,11 @@
         <v>11</v>
       </c>
       <c r="E515" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F515" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22138,11 +22194,11 @@
         <v>4</v>
       </c>
       <c r="E521" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F521" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22334,11 +22390,11 @@
         <v>11</v>
       </c>
       <c r="E528" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22362,11 +22418,11 @@
         <v>11</v>
       </c>
       <c r="E529" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F529" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22530,11 +22586,11 @@
         <v>4</v>
       </c>
       <c r="E535" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F535" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22754,11 +22810,11 @@
         <v>3</v>
       </c>
       <c r="E543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -22922,11 +22978,11 @@
         <v>4</v>
       </c>
       <c r="E549" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23118,11 +23174,11 @@
         <v>4</v>
       </c>
       <c r="E556" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23510,11 +23566,11 @@
         <v>4</v>
       </c>
       <c r="E570" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23706,11 +23762,11 @@
         <v>4</v>
       </c>
       <c r="E577" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F577" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23902,11 +23958,11 @@
         <v>4</v>
       </c>
       <c r="E584" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23930,11 +23986,11 @@
         <v>4</v>
       </c>
       <c r="E585" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F585" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24098,11 +24154,11 @@
         <v>4</v>
       </c>
       <c r="E591" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24257,7 +24313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24284,7 +24340,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44653</v>
+        <v>40316</v>
       </c>
     </row>
     <row r="3">
@@ -24294,7 +24350,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37562</v>
+        <v>14402</v>
       </c>
     </row>
     <row r="4">
@@ -24304,7 +24360,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57434</v>
+        <v>39584</v>
       </c>
     </row>
     <row r="5">
@@ -24314,7 +24370,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13015</v>
+        <v>18564</v>
       </c>
     </row>
     <row r="6">
@@ -24324,7 +24380,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36415</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="7">
@@ -24334,7 +24390,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89837</v>
+        <v>80845</v>
       </c>
     </row>
     <row r="8">
@@ -24344,7 +24400,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38002</v>
+        <v>46131</v>
       </c>
     </row>
     <row r="9">
@@ -24354,7 +24410,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4627</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="10">
@@ -24364,7 +24420,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14107</v>
+        <v>35708</v>
       </c>
     </row>
     <row r="11">
@@ -24374,7 +24430,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24230</v>
+        <v>19685</v>
       </c>
     </row>
     <row r="12">
@@ -24384,7 +24440,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25049</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="13">
@@ -24394,7 +24450,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12818</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="14">
@@ -24414,7 +24470,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19050</v>
+        <v>40327</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>9541</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9975</v>
       </c>
     </row>
   </sheetData>
@@ -24428,7 +24494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24455,7 +24521,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-27661542.37777779</v>
+        <v>-17052909.87777779</v>
       </c>
     </row>
     <row r="3">
@@ -24465,7 +24531,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84999915.39999999</v>
+        <v>84999907.89999999</v>
       </c>
     </row>
     <row r="4">
@@ -24475,7 +24541,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9658368</v>
+        <v>8597504</v>
       </c>
     </row>
     <row r="5">
@@ -24516,6 +24582,16 @@
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.09999999999999</v>
       </c>
     </row>
   </sheetData>
